--- a/Combined_Data.xlsx
+++ b/Combined_Data.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bananatree\Desktop\Merge_Different_Headers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bananatree\Desktop\merge-different-headers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27FE0BE6-A159-4CCC-8C69-A1A20F3452EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C0D089-21C8-4DB0-9C60-2F3799CC323B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{7FF7A793-D839-4C88-B8D3-575F50B75A31}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2BEE79B0-F7F7-464F-8B67-B8A4CF6E8C35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -540,12 +543,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AC0448-0D6C-451D-86B5-9ABD2BC8AC1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5EAAE8-8939-493A-BE5A-F466F7D17D62}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1122,6 +1133,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{7A5EAAE8-8939-493A-BE5A-F466F7D17D62}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>